--- a/Documents/WebTours_Profil_nagruzki_v1_2_Novaya_statistika.xlsx
+++ b/Documents/WebTours_Profil_nagruzki_v1_2_Novaya_statistika.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Тестировщик\Т1_Нагрузочное тестирование\Материалы\WebTours Load Testing Report\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3543E9AF-D7E8-4002-AFAA-3A6F0829C03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE28CB9-454B-4681-8B85-FB3EA37ED578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Подробности1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1990,22 +1990,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="37" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2026,6 +2011,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="80">
@@ -2110,48 +2110,27 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2673,7 +2652,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I17:J30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2753,25 +2732,25 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="13">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3259,8 +3238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4754,14 +4733,14 @@
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="86"/>
-      <c r="C39" s="87" t="s">
+      <c r="B39" s="94"/>
+      <c r="C39" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="88"/>
+      <c r="D39" s="96"/>
       <c r="F39" s="76">
         <v>0.77457175925925925</v>
       </c>
@@ -5205,7 +5184,7 @@
         <f t="shared" si="21"/>
         <v>8.6366282386184379E-3</v>
       </c>
-      <c r="G53" s="90"/>
+      <c r="G53" s="85"/>
     </row>
     <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -6065,8 +6044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C8:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62:I73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6089,14 +6068,14 @@
   </cols>
   <sheetData>
     <row r="8" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
     </row>
     <row r="10" spans="5:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
@@ -6131,11 +6110,11 @@
       <c r="H11" s="81">
         <v>516</v>
       </c>
-      <c r="I11" s="91">
+      <c r="I11" s="86">
         <f>1-G11/H11</f>
         <v>-1.1627906976744207E-2</v>
       </c>
-      <c r="J11" s="94" t="s">
+      <c r="J11" s="89" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6152,11 +6131,11 @@
       <c r="H12" s="81">
         <v>417</v>
       </c>
-      <c r="I12" s="91">
+      <c r="I12" s="86">
         <f t="shared" ref="I12:I22" si="0">1-G12/H12</f>
         <v>-1.1990407673860837E-2</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="89" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6173,11 +6152,11 @@
       <c r="H13" s="81">
         <v>315</v>
       </c>
-      <c r="I13" s="91">
+      <c r="I13" s="86">
         <f t="shared" si="0"/>
         <v>-1.904761904761898E-2</v>
       </c>
-      <c r="J13" s="94" t="s">
+      <c r="J13" s="89" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6194,11 +6173,11 @@
       <c r="H14" s="81">
         <v>267</v>
       </c>
-      <c r="I14" s="92">
+      <c r="I14" s="87">
         <f t="shared" si="0"/>
         <v>-2.621722846441954E-2</v>
       </c>
-      <c r="J14" s="94" t="s">
+      <c r="J14" s="89" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6215,11 +6194,11 @@
       <c r="H15" s="82">
         <v>267</v>
       </c>
-      <c r="I15" s="91">
+      <c r="I15" s="86">
         <f t="shared" si="0"/>
         <v>-2.621722846441954E-2</v>
       </c>
-      <c r="J15" s="94" t="s">
+      <c r="J15" s="89" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6236,11 +6215,11 @@
       <c r="H16" s="81">
         <v>165</v>
       </c>
-      <c r="I16" s="93">
+      <c r="I16" s="88">
         <f t="shared" si="0"/>
         <v>-3.6363636363636376E-2</v>
       </c>
-      <c r="J16" s="94" t="s">
+      <c r="J16" s="89" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6257,11 +6236,11 @@
       <c r="H17" s="81">
         <v>285</v>
       </c>
-      <c r="I17" s="91">
+      <c r="I17" s="86">
         <f t="shared" si="0"/>
         <v>-2.1052631578947434E-2</v>
       </c>
-      <c r="J17" s="94" t="s">
+      <c r="J17" s="89" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6278,11 +6257,11 @@
       <c r="H18" s="81">
         <v>72</v>
       </c>
-      <c r="I18" s="91">
+      <c r="I18" s="86">
         <f t="shared" si="0"/>
         <v>-1.388888888888884E-2</v>
       </c>
-      <c r="J18" s="94" t="s">
+      <c r="J18" s="89" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6299,11 +6278,11 @@
       <c r="H19" s="81">
         <v>315</v>
       </c>
-      <c r="I19" s="91">
+      <c r="I19" s="86">
         <f t="shared" si="0"/>
         <v>-1.904761904761898E-2</v>
       </c>
-      <c r="J19" s="94" t="s">
+      <c r="J19" s="89" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6320,11 +6299,11 @@
       <c r="H20" s="81">
         <v>99</v>
       </c>
-      <c r="I20" s="91">
+      <c r="I20" s="86">
         <f t="shared" si="0"/>
         <v>-1.0101010101010166E-2</v>
       </c>
-      <c r="J20" s="94" t="s">
+      <c r="J20" s="89" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6341,11 +6320,11 @@
       <c r="H21" s="81">
         <v>99</v>
       </c>
-      <c r="I21" s="92">
+      <c r="I21" s="87">
         <f t="shared" si="0"/>
         <v>-1.0101010101010166E-2</v>
       </c>
-      <c r="J21" s="94" t="s">
+      <c r="J21" s="89" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6362,23 +6341,23 @@
       <c r="H22" s="82">
         <v>99</v>
       </c>
-      <c r="I22" s="91">
+      <c r="I22" s="86">
         <f t="shared" si="0"/>
         <v>-1.0101010101010166E-2</v>
       </c>
-      <c r="J22" s="94" t="s">
+      <c r="J22" s="89" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E25" s="89" t="s">
+      <c r="E25" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
     </row>
     <row r="27" spans="5:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
@@ -6413,11 +6392,11 @@
       <c r="H28" s="83">
         <v>512</v>
       </c>
-      <c r="I28" s="91">
+      <c r="I28" s="86">
         <f>1-G28/H28</f>
         <v>-1.953125E-2</v>
       </c>
-      <c r="J28" s="94" t="s">
+      <c r="J28" s="89" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6434,11 +6413,11 @@
       <c r="H29" s="83">
         <v>413</v>
       </c>
-      <c r="I29" s="91">
+      <c r="I29" s="86">
         <f t="shared" ref="I29:I39" si="1">1-G29/H29</f>
         <v>-2.1791767554479424E-2</v>
       </c>
-      <c r="J29" s="94" t="s">
+      <c r="J29" s="89" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6455,11 +6434,11 @@
       <c r="H30" s="83">
         <v>312</v>
       </c>
-      <c r="I30" s="91">
+      <c r="I30" s="86">
         <f t="shared" si="1"/>
         <v>-2.8846153846153744E-2</v>
       </c>
-      <c r="J30" s="94" t="s">
+      <c r="J30" s="89" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6476,11 +6455,11 @@
       <c r="H31" s="83">
         <v>266</v>
       </c>
-      <c r="I31" s="92">
+      <c r="I31" s="87">
         <f t="shared" si="1"/>
         <v>-3.007518796992481E-2</v>
       </c>
-      <c r="J31" s="94" t="s">
+      <c r="J31" s="89" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6497,11 +6476,11 @@
       <c r="H32" s="84">
         <v>266</v>
       </c>
-      <c r="I32" s="91">
+      <c r="I32" s="86">
         <f t="shared" si="1"/>
         <v>-3.007518796992481E-2</v>
       </c>
-      <c r="J32" s="94" t="s">
+      <c r="J32" s="89" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6518,11 +6497,11 @@
       <c r="H33" s="83">
         <v>164</v>
       </c>
-      <c r="I33" s="93">
+      <c r="I33" s="88">
         <f t="shared" si="1"/>
         <v>-4.2682926829268331E-2</v>
       </c>
-      <c r="J33" s="97" t="s">
+      <c r="J33" s="92" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6539,11 +6518,11 @@
       <c r="H34" s="83">
         <v>282</v>
       </c>
-      <c r="I34" s="91">
+      <c r="I34" s="86">
         <f t="shared" si="1"/>
         <v>-3.1914893617021267E-2</v>
       </c>
-      <c r="J34" s="94" t="s">
+      <c r="J34" s="89" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6560,11 +6539,11 @@
       <c r="H35" s="83">
         <v>73</v>
       </c>
-      <c r="I35" s="91">
+      <c r="I35" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35" s="94" t="s">
+      <c r="J35" s="89" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6581,11 +6560,11 @@
       <c r="H36" s="83">
         <v>312</v>
       </c>
-      <c r="I36" s="91">
+      <c r="I36" s="86">
         <f t="shared" si="1"/>
         <v>-2.8846153846153744E-2</v>
       </c>
-      <c r="J36" s="94" t="s">
+      <c r="J36" s="89" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6602,11 +6581,11 @@
       <c r="H37" s="83">
         <v>100</v>
       </c>
-      <c r="I37" s="91">
+      <c r="I37" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="94" t="s">
+      <c r="J37" s="89" t="s">
         <v>111</v>
       </c>
       <c r="L37" s="3"/>
@@ -6627,11 +6606,11 @@
       <c r="H38" s="83">
         <v>100</v>
       </c>
-      <c r="I38" s="92">
+      <c r="I38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="94" t="s">
+      <c r="J38" s="89" t="s">
         <v>115</v>
       </c>
       <c r="L38" s="3"/>
@@ -6652,11 +6631,11 @@
       <c r="H39" s="84">
         <v>100</v>
       </c>
-      <c r="I39" s="91">
+      <c r="I39" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J39" s="94" t="s">
+      <c r="J39" s="89" t="s">
         <v>108</v>
       </c>
       <c r="L39" s="3"/>
@@ -6677,14 +6656,14 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E42" s="89" t="s">
+      <c r="E42" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -6733,11 +6712,11 @@
       <c r="H45" s="83">
         <v>132</v>
       </c>
-      <c r="I45" s="93">
+      <c r="I45" s="88">
         <f>1-G45/H45</f>
         <v>-1.0909090909090908</v>
       </c>
-      <c r="J45" s="96"/>
+      <c r="J45" s="91"/>
     </row>
     <row r="46" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E46" s="2" t="s">
@@ -6752,11 +6731,11 @@
       <c r="H46" s="83">
         <v>96</v>
       </c>
-      <c r="I46" s="93">
+      <c r="I46" s="88">
         <f t="shared" ref="I46:I56" si="2">1-G46/H46</f>
         <v>-1.375</v>
       </c>
-      <c r="J46" s="96"/>
+      <c r="J46" s="91"/>
     </row>
     <row r="47" spans="5:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="E47" s="2" t="s">
@@ -6771,11 +6750,11 @@
       <c r="H47" s="83">
         <v>60</v>
       </c>
-      <c r="I47" s="93">
+      <c r="I47" s="88">
         <f t="shared" si="2"/>
         <v>-1.6</v>
       </c>
-      <c r="J47" s="96"/>
+      <c r="J47" s="91"/>
     </row>
     <row r="48" spans="5:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="E48" s="2" t="s">
@@ -6790,11 +6769,11 @@
       <c r="H48" s="83">
         <v>48</v>
       </c>
-      <c r="I48" s="95">
+      <c r="I48" s="90">
         <f t="shared" si="2"/>
         <v>-1.25</v>
       </c>
-      <c r="J48" s="96"/>
+      <c r="J48" s="91"/>
     </row>
     <row r="49" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E49" s="2" t="s">
@@ -6809,11 +6788,11 @@
       <c r="H49" s="84">
         <v>48</v>
       </c>
-      <c r="I49" s="93">
+      <c r="I49" s="88">
         <f t="shared" si="2"/>
         <v>-1.5</v>
       </c>
-      <c r="J49" s="96"/>
+      <c r="J49" s="91"/>
     </row>
     <row r="50" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E50" s="2" t="s">
@@ -6828,11 +6807,11 @@
       <c r="H50" s="83">
         <v>24</v>
       </c>
-      <c r="I50" s="93">
+      <c r="I50" s="88">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="J50" s="96"/>
+      <c r="J50" s="91"/>
     </row>
     <row r="51" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E51" s="2" t="s">
@@ -6847,11 +6826,11 @@
       <c r="H51" s="83">
         <v>60</v>
       </c>
-      <c r="I51" s="93">
+      <c r="I51" s="88">
         <f t="shared" si="2"/>
         <v>-1.2000000000000002</v>
       </c>
-      <c r="J51" s="96"/>
+      <c r="J51" s="91"/>
     </row>
     <row r="52" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E52" s="2" t="s">
@@ -6866,11 +6845,11 @@
       <c r="H52" s="83">
         <v>24</v>
       </c>
-      <c r="I52" s="93">
+      <c r="I52" s="88">
         <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
-      <c r="J52" s="96"/>
+      <c r="J52" s="91"/>
     </row>
     <row r="53" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E53" s="2" t="s">
@@ -6885,11 +6864,11 @@
       <c r="H53" s="83">
         <v>72</v>
       </c>
-      <c r="I53" s="93">
+      <c r="I53" s="88">
         <f t="shared" si="2"/>
         <v>-1.1666666666666665</v>
       </c>
-      <c r="J53" s="96"/>
+      <c r="J53" s="91"/>
     </row>
     <row r="54" spans="5:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="E54" s="2" t="s">
@@ -6904,11 +6883,11 @@
       <c r="H54" s="83">
         <v>24</v>
       </c>
-      <c r="I54" s="93">
+      <c r="I54" s="88">
         <f t="shared" si="2"/>
         <v>-1.5</v>
       </c>
-      <c r="J54" s="96"/>
+      <c r="J54" s="91"/>
     </row>
     <row r="55" spans="5:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="E55" s="2" t="s">
@@ -6923,11 +6902,11 @@
       <c r="H55" s="84">
         <v>24</v>
       </c>
-      <c r="I55" s="95">
+      <c r="I55" s="90">
         <f t="shared" si="2"/>
         <v>-1.5</v>
       </c>
-      <c r="J55" s="96"/>
+      <c r="J55" s="91"/>
     </row>
     <row r="56" spans="5:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="E56" s="2" t="s">
@@ -6942,21 +6921,21 @@
       <c r="H56" s="83">
         <v>24</v>
       </c>
-      <c r="I56" s="93">
+      <c r="I56" s="88">
         <f t="shared" si="2"/>
         <v>-1.5</v>
       </c>
-      <c r="J56" s="96"/>
+      <c r="J56" s="91"/>
     </row>
     <row r="59" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E59" s="89" t="s">
+      <c r="E59" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="F59" s="89"/>
-      <c r="G59" s="89"/>
-      <c r="H59" s="89"/>
-      <c r="I59" s="89"/>
-      <c r="J59" s="89"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="97"/>
+      <c r="J59" s="97"/>
     </row>
     <row r="61" spans="5:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="E61" s="1" t="s">
@@ -6991,11 +6970,11 @@
       <c r="H62" s="83">
         <v>512</v>
       </c>
-      <c r="I62" s="91">
+      <c r="I62" s="86">
         <f>1-G62/H62</f>
         <v>-1.953125E-2</v>
       </c>
-      <c r="J62" s="97" t="s">
+      <c r="J62" s="92" t="s">
         <v>122</v>
       </c>
     </row>
@@ -7012,11 +6991,11 @@
       <c r="H63" s="83">
         <v>411</v>
       </c>
-      <c r="I63" s="91">
+      <c r="I63" s="86">
         <f t="shared" ref="I63:I73" si="3">1-G63/H63</f>
         <v>-2.6763990267639981E-2</v>
       </c>
-      <c r="J63" s="97" t="s">
+      <c r="J63" s="92" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7033,11 +7012,11 @@
       <c r="H64" s="83">
         <v>312</v>
       </c>
-      <c r="I64" s="91">
+      <c r="I64" s="86">
         <f t="shared" si="3"/>
         <v>-2.8846153846153744E-2</v>
       </c>
-      <c r="J64" s="97" t="s">
+      <c r="J64" s="92" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7054,11 +7033,11 @@
       <c r="H65" s="83">
         <v>265</v>
       </c>
-      <c r="I65" s="92">
+      <c r="I65" s="87">
         <f t="shared" si="3"/>
         <v>-3.3962264150943389E-2</v>
       </c>
-      <c r="J65" s="94" t="s">
+      <c r="J65" s="89" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7075,11 +7054,11 @@
       <c r="H66" s="84">
         <v>265</v>
       </c>
-      <c r="I66" s="91">
+      <c r="I66" s="86">
         <f t="shared" si="3"/>
         <v>-3.3962264150943389E-2</v>
       </c>
-      <c r="J66" s="97" t="s">
+      <c r="J66" s="92" t="s">
         <v>112</v>
       </c>
     </row>
@@ -7096,11 +7075,11 @@
       <c r="H67" s="83">
         <v>163</v>
       </c>
-      <c r="I67" s="93">
+      <c r="I67" s="88">
         <f t="shared" si="3"/>
         <v>-4.9079754601226933E-2</v>
       </c>
-      <c r="J67" s="97" t="s">
+      <c r="J67" s="92" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7117,11 +7096,11 @@
       <c r="H68" s="83">
         <v>281</v>
       </c>
-      <c r="I68" s="91">
+      <c r="I68" s="86">
         <f t="shared" si="3"/>
         <v>-3.5587188612099752E-2</v>
       </c>
-      <c r="J68" s="94" t="s">
+      <c r="J68" s="89" t="s">
         <v>106</v>
       </c>
     </row>
@@ -7138,11 +7117,11 @@
       <c r="H69" s="83">
         <v>72</v>
       </c>
-      <c r="I69" s="91">
+      <c r="I69" s="86">
         <f t="shared" si="3"/>
         <v>-1.388888888888884E-2</v>
       </c>
-      <c r="J69" s="94" t="s">
+      <c r="J69" s="89" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7159,11 +7138,11 @@
       <c r="H70" s="83">
         <v>312</v>
       </c>
-      <c r="I70" s="91">
+      <c r="I70" s="86">
         <f t="shared" si="3"/>
         <v>-2.8846153846153744E-2</v>
       </c>
-      <c r="J70" s="94" t="s">
+      <c r="J70" s="89" t="s">
         <v>110</v>
       </c>
     </row>
@@ -7180,11 +7159,11 @@
       <c r="H71" s="83">
         <v>100</v>
       </c>
-      <c r="I71" s="91">
+      <c r="I71" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J71" s="94" t="s">
+      <c r="J71" s="89" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7201,11 +7180,11 @@
       <c r="H72" s="83">
         <v>100</v>
       </c>
-      <c r="I72" s="92">
+      <c r="I72" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J72" s="94" t="s">
+      <c r="J72" s="89" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7222,11 +7201,11 @@
       <c r="H73" s="84">
         <v>100</v>
       </c>
-      <c r="I73" s="91">
+      <c r="I73" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J73" s="97" t="s">
+      <c r="J73" s="92" t="s">
         <v>123</v>
       </c>
     </row>
